--- a/Core_Framework_Mobile/data/Data.xlsx
+++ b/Core_Framework_Mobile/data/Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8CD21-9DCA-3944-94D7-4A42A1CA0F86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09F41C-B060-814B-B46C-D8A6DA71B7A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="1860" windowWidth="21380" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -55,21 +55,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
-    <t>Andromoney</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>TestInc</t>
   </si>
   <si>
@@ -104,6 +95,9 @@
   </si>
   <si>
     <t>ModProSmokeTests</t>
+  </si>
+  <si>
+    <t>HTECSmokeTests</t>
   </si>
 </sst>
 </file>
@@ -202,12 +196,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +543,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,10 +561,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -584,7 +578,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -592,7 +586,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -651,7 +645,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -662,7 +656,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -673,44 +667,44 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -743,7 +737,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,8 +746,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
+      <c r="A1" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -771,59 +765,51 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
+      <c r="A10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,26 +817,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
+      <c r="A14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -858,21 +844,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Core_Framework_Mobile/data/Data.xlsx
+++ b/Core_Framework_Mobile/data/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09F41C-B060-814B-B46C-D8A6DA71B7A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A3645-23FE-0848-875B-7E090CF9105C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1860" windowWidth="21380" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34080" yWindow="2420" windowWidth="21380" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>IncAmt</t>
   </si>
   <si>
-    <t>SampleTest</t>
-  </si>
-  <si>
     <t>categoryLabel_xpath</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>HTECSmokeTests</t>
+  </si>
+  <si>
+    <t>HBGRegressionTests</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +544,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,15 +563,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
+      <c r="A3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -578,7 +579,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -645,7 +646,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -674,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -686,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -698,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -737,7 +738,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -781,7 +782,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -836,7 +837,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">

--- a/Core_Framework_Mobile/data/Data.xlsx
+++ b/Core_Framework_Mobile/data/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A3645-23FE-0848-875B-7E090CF9105C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFFFD37-C99D-5947-8C70-7FF75D4BC72B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34080" yWindow="2420" windowWidth="21380" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>HBGRegressionTests</t>
+  </si>
+  <si>
+    <t>HTECRegressionTests</t>
+  </si>
+  <si>
+    <t>HBGSmokeTests</t>
+  </si>
+  <si>
+    <t>ModProRegressionTests</t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,12 +553,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,8 +579,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
+      <c r="A3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -579,31 +588,43 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A21" sqref="A21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,8 +768,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -756,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -767,98 +788,176 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C35" t="s">
         <v>18</v>
       </c>
     </row>
